--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Method of production.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Method of production.xlsx
@@ -35,6 +35,15 @@
     <t>Production of animals in cages (applies to poultry, rabbits)</t>
   </si>
   <si>
+    <t>Farmed Domestic or cultivated</t>
+  </si>
+  <si>
+    <t>Z0154</t>
+  </si>
+  <si>
+    <t>Animals produced in captivity (applies also to game and fish), plants produced by cultivation</t>
+  </si>
+  <si>
     <t>Free range production</t>
   </si>
   <si>
@@ -44,22 +53,22 @@
     <t>Animals have continuous daytime access to open air enclosures covered with vegetation</t>
   </si>
   <si>
-    <t>Traditional production</t>
+    <t>Genetically modified</t>
   </si>
   <si>
-    <t>PD06A</t>
+    <t>Z0214</t>
   </si>
   <si>
-    <t>Production of food using traditional - artisan methods</t>
+    <t>Production using a species with a genetic modification</t>
   </si>
   <si>
-    <t>Organic production</t>
+    <t>Integrated Pest Management</t>
   </si>
   <si>
-    <t>PD07A</t>
+    <t>PD12A</t>
   </si>
   <si>
-    <t>A method of production which places the highest emphasis on environmental protection and, with regard to livestock production, animal welfare considerations. It avoids or largely reduces the use of synthetic chemical inputs such as fertilisers, pesticides, additives and medicinal products. (http://www.organic-europe.net/europe_eu/statistics-eurostat.asp)</t>
+    <t>A production method that uses effective and environmentally sensitive approach to pest management that relies on a combination of common-sense practices. Considers life cycles of pests and their interaction with the environment. Requires the management of pest damage by the most economical means, and with the least possible hazard to people, property, and the environment</t>
   </si>
   <si>
     <t>Intensive Industrial production</t>
@@ -80,31 +89,19 @@
     <t>Products produced without use of organic production methods</t>
   </si>
   <si>
-    <t>Integrated Pest Management</t>
+    <t>Organic production</t>
   </si>
   <si>
-    <t>PD12A</t>
+    <t>PD07A</t>
   </si>
   <si>
-    <t>A production method that uses effective and environmentally sensitive approach to pest management that relies on a combination of common-sense practices. Considers life cycles of pests and their interaction with the environment. Requires the management of pest damage by the most economical means, and with the least possible hazard to people, property, and the environment</t>
+    <t>A method of production which places the highest emphasis on environmental protection and, with regard to livestock production, animal welfare considerations. It avoids or largely reduces the use of synthetic chemical inputs such as fertilisers, pesticides, additives and medicinal products. (http://www.organic-europe.net/europe_eu/statistics-eurostat.asp)</t>
   </si>
   <si>
-    <t>Wild or gathered or hunted</t>
+    <t>Other production method</t>
   </si>
   <si>
-    <t>Z0153</t>
-  </si>
-  <si>
-    <t>Animal or plant products harvested from their natural environment</t>
-  </si>
-  <si>
-    <t>Farmed Domestic or cultivated</t>
-  </si>
-  <si>
-    <t>Z0154</t>
-  </si>
-  <si>
-    <t>Animals produced in captivity (applies also to game and fish), plants produced by cultivation</t>
+    <t>Z0216</t>
   </si>
   <si>
     <t>Outdoor - Open-air growing condition</t>
@@ -116,6 +113,21 @@
     <t>Cultivation of plants and rearing of animals without the use of climate-controlled or protective structures</t>
   </si>
   <si>
+    <t>Production method unknown</t>
+  </si>
+  <si>
+    <t>Z0215</t>
+  </si>
+  <si>
+    <t>Traditional production</t>
+  </si>
+  <si>
+    <t>PD06A</t>
+  </si>
+  <si>
+    <t>Production of food using traditional - artisan methods</t>
+  </si>
+  <si>
     <t>Under glass - protected growing condition</t>
   </si>
   <si>
@@ -125,25 +137,13 @@
     <t>Cultivation of plants, especially of out-of-season plants, in climate-controlled or protective structures</t>
   </si>
   <si>
-    <t>Genetically modified</t>
+    <t>Wild or gathered or hunted</t>
   </si>
   <si>
-    <t>Z0214</t>
+    <t>Z0153</t>
   </si>
   <si>
-    <t>Production using a species with a genetic modification</t>
-  </si>
-  <si>
-    <t>Production method unknown</t>
-  </si>
-  <si>
-    <t>Z0215</t>
-  </si>
-  <si>
-    <t>Other production method</t>
-  </si>
-  <si>
-    <t>Z0216</t>
+    <t>Animal or plant products harvested from their natural environment</t>
   </si>
 </sst>
 </file>
@@ -301,60 +301,60 @@
       <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
-      <c r="C14"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="C15"/>
     </row>
     <row r="16">
       <c r="A16"/>
